--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -7,7 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test6" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -423,4 +429,112 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -7,13 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test6" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="test1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="test2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="test3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="test5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="test4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="test7" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="test4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,4 +538,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -7,14 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test7" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test6" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="test" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="test1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="test2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="test3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="test5" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="test4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="test11" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test10" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test9" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test8" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test7" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="test1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="test2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="test3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="test5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="test4" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +28,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,13 +36,30 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <name val="メイリオ"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="メイリオ"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00156B31"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,8 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,6 +445,48 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="168" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/18 10:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -432,12 +499,150 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/18 10:19:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/18 10:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2024/10/1809:55:59</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -450,7 +655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -468,7 +673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -486,7 +691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -504,7 +709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -520,40 +725,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -7,18 +7,21 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test11" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test10" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="test9" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="test8" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="test7" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="test6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="test" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="test1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="test2" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="test3" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="test5" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="test4" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="test14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test13" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test11" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test10" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test9" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test8" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="test7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="test6" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="test" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="test1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="test2" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="test3" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="test5" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="test4" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -74,12 +77,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -445,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +466,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2024/10/18 10:24:41</t>
+          <t>2024/10/20 11:52:10</t>
         </is>
       </c>
     </row>
@@ -476,6 +482,56 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>こんにちは</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>AIアシスタント</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>元気ですか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>はい、元気です。
+ありがとうございます。
+おかげさまで</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -535,39 +591,147 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="168" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2024/10/18 10:19:13</t>
+          <t>2024/10/20 11:48:59</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>ロール</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>発言内容</t>
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>こんにちは</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AIアシスタント</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>元気ですか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>はい、元気です。
+ありがとうございます。
+おかげさまで</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -579,17 +743,187 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="168" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>2024/10/20 11:46:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>こんにちは</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AIアシスタント</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>元気ですか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>はい、元気です。</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="168" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/18 10:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/18 10:19:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>2024/10/18 10:05:55</t>
         </is>
       </c>
@@ -611,7 +945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -637,7 +971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -655,7 +989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -671,58 +1005,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -7,21 +7,22 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test14" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test13" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="test12" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="test11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="test10" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="test9" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="test8" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="test7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="test6" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="test" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="test1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="test2" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="test3" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="test5" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="test4" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="test15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test14" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test13" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test12" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test10" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test9" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="test8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="test7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="test6" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="test" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="test1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="test2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="test3" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="test5" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="test4" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +467,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2024/10/20 11:52:10</t>
+          <t>2024/10/20 12:15:09</t>
         </is>
       </c>
     </row>
@@ -482,7 +483,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>user</t>
@@ -494,7 +495,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>assistant</t>
@@ -506,7 +507,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
           <t>user</t>
@@ -518,7 +519,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="162" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>assistant</t>
@@ -526,9 +527,15 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>はい、元気です。
-ありがとうございます。
-おかげさまで</t>
+          <t>1.はい、
+元気です。
+あり
+がと
+うご
+ざい
+ます。
+おかげ
+さまで</t>
         </is>
       </c>
     </row>
@@ -628,6 +635,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -666,7 +691,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2024/10/20 11:48:59</t>
+          <t>2024/10/20 11:52:10</t>
         </is>
       </c>
     </row>
@@ -688,7 +713,7 @@
           <t>user</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>こんにちは</t>
         </is>
@@ -700,7 +725,7 @@
           <t>assistant</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>AIアシスタント</t>
         </is>
@@ -712,7 +737,7 @@
           <t>user</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>元気ですか？</t>
         </is>
@@ -724,7 +749,7 @@
           <t>assistant</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>はい、元気です。
 ありがとうございます。
@@ -758,7 +783,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2024/10/20 11:46:25</t>
+          <t>2024/10/20 11:48:59</t>
         </is>
       </c>
     </row>
@@ -818,7 +843,9 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>はい、元気です。</t>
+          <t>はい、元気です。
+ありがとうございます。
+おかげさまで</t>
         </is>
       </c>
     </row>
@@ -833,7 +860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,7 +875,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2024/10/18 10:24:41</t>
+          <t>2024/10/20 11:46:25</t>
         </is>
       </c>
     </row>
@@ -864,6 +891,54 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>こんにちは</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AIアシスタント</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>元気ですか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>はい、元気です。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -882,21 +957,25 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="168" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2024/10/18 10:19:13</t>
+          <t>2024/10/18 10:24:41</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>ロール</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>発言内容</t>
         </is>
@@ -924,6 +1003,44 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>2024/10/18 10:19:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>2024/10/18 10:05:55</t>
         </is>
       </c>
@@ -945,7 +1062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -971,7 +1088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -987,22 +1104,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -7,22 +7,23 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test15" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test14" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="test13" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="test12" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="test11" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="test10" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="test9" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="test8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="test7" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="test6" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="test" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="test1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="test2" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="test3" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="test5" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="test4" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="test16" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test14" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test13" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test10" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="test9" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="test8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="test7" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="test6" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="test" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="test1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="test2" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="test3" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="test5" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="test4" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -52,8 +53,12 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
+    <font>
+      <name val="メイリオ"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -63,6 +68,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00156B31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d9d9d9"/>
       </patternFill>
     </fill>
   </fills>
@@ -78,13 +88,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,6 +485,240 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>2024/10/20 13:34:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>こんにちは</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>AIアシスタント</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>元気ですか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>はい、元気です。ありがとうございます。おかげさまで</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="168" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>2024/10/20 12:15:09</t>
         </is>
       </c>
@@ -544,133 +796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -762,7 +888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -854,7 +980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -944,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -986,7 +1112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1024,7 +1150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1062,7 +1188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1086,22 +1212,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -7,23 +7,26 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test15" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="test14" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="test13" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="test12" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="test11" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="test10" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="test9" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="test8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="test7" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="test6" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="test" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="test1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="test2" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="test3" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="test5" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="test4" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="test19" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test18" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test17" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test16" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test15" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test14" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test13" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="test12" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="test11" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="test10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="test9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="test8" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="test7" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="test6" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="test" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="test1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="test2" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="test3" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="test5" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="test4" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,7 +488,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2024/10/20 13:34:55</t>
+          <t>2024/10/22 08:04:41</t>
         </is>
       </c>
     </row>
@@ -521,7 +524,7 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>AIアシスタント</t>
+          <t>こんにちは</t>
         </is>
       </c>
     </row>
@@ -537,6 +540,362 @@
         </is>
       </c>
     </row>
+    <row r="6" ht="663" customHeight="1">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>1.元気
+です
+あり
+がと
+う
+ござい
+ます
+おかげ
+さまで
+元気です
+あなたは
+元気
+ですか？
+2. 元気
+です
+あり
+がと
+う
+ござい
+ます
+おかげ
+さまで
+元気です
+あなたは
+元気
+ですか？
+3. 元気
+です
+あり
+がと
+う
+ござい
+ます
+おかげ
+さまで
+元気です
+あなたは
+元気
+ですか？</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/18 10:19:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/18 10:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2024/10/1809:55:59</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="168" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/22 07:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>こんにちは</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>AIアシスタント</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>元気ですか？</t>
+        </is>
+      </c>
+    </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" s="8" t="inlineStr">
         <is>
@@ -554,7 +913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -572,133 +931,187 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="168" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/21 11:32:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>こんにちは</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>AIアシスタント</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>元気ですか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>はい、元気です。ありがとうございます。おかげさまで</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="168" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/20 13:34:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>こんにちは</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>AIアシスタント</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>元気ですか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>はい、元気です。ありがとうございます。おかげさまで</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -796,7 +1209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -888,7 +1301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -980,7 +1393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1070,7 +1483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1110,106 +1523,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>2024/10/18 10:19:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>ロール</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>発言内容</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>2024/10/18 10:05:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>ロール</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>発言内容</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>2024/10/1809:55:59</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -7,26 +7,27 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test19" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test18" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="test17" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="test16" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="test15" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="test14" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="test13" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="test12" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="test11" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="test10" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="test9" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="test8" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="test7" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="test6" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="test" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="test1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="test2" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="test3" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="test5" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="test4" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="こんにちは！" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test19" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test18" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test17" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test16" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test14" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="test13" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="test12" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="test11" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="test10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="test9" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="test8" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="test7" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="test6" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="test" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="test1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="test2" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="test3" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="test5" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="test4" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,6 +474,380 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="168" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/23 13:32:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Hello!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today?</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>What is Python?</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="289" customHeight="1">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>Python is a high-level, interpreted programming language known for its readability and simplicity. It was created by Guido van Rossum and first released in 1991. Python's design philosophy emphasizes code readability, allowing developers to express their concepts in fewer lines of code compared to other programming languages.
+Some key features of Python include:
+- **Easy to Learn**: Python has a straightforward syntax that makes it accessible for beginners and allows experienced programmers to be productive quickly.
+- **Versatile**: Python can be used for a variety of applications, including web development, data analysis, machine learning, automation, scientific computing, and more.
+- **Large Standard Library**: Python has a robust standard library that provides modules and functions for various tasks, reducing the need for third-party libraries for many common operations.
+- **Cross-Platform**: Python runs on various operating systems, including Windows, macOS, and Linux.
+- **Community Support**: Python has a large and active community, which means there are many resources, libraries, and frameworks available to support development.
+- **Object-Oriented and Procedural**: Python supports multiple programming paradigms, including object-oriented programming and procedural programming.
+Many popular frameworks and libraries, such as Django (for web development), NumPy and Pandas (for data analysis), and TensorFlow and PyTorch (for machine learning), are built on Python, making it one of the most widely used languages in various fields.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>I got it! Thanks!</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>You're welcome! If you have any more questions or need further information, feel free to ask. Happy coding!</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="168" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/18 10:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/18 10:19:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/18 10:05:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>ロール</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>発言内容</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2024/10/1809:55:59</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -595,83 +970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>2024/10/18 10:19:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>ロール</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>発言内容</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>2024/10/18 10:05:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>ロール</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>発言内容</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -684,20 +983,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>2024/10/1809:55:59</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -715,115 +1006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -913,25 +1096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1021,7 +1186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1209,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1301,7 +1466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1393,7 +1558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1481,46 +1646,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="168" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>2024/10/18 10:24:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>ロール</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>発言内容</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>